--- a/dev_res/数值.xlsx
+++ b/dev_res/数值.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\dev_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABB46F-CAE9-4812-9369-D5106ACCA3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB12B8F-CCAB-457D-B555-E3B0FA54C2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
   <sheets>
     <sheet name="背包物品" sheetId="9" r:id="rId1"/>
     <sheet name="状态物品" sheetId="10" r:id="rId2"/>
     <sheet name="工具" sheetId="11" r:id="rId3"/>
-    <sheet name="近战武器" sheetId="4" r:id="rId4"/>
-    <sheet name="远程武器" sheetId="7" r:id="rId5"/>
-    <sheet name="穿戴物品" sheetId="12" r:id="rId6"/>
+    <sheet name="便携武器" sheetId="13" r:id="rId4"/>
+    <sheet name="近战武器" sheetId="4" r:id="rId5"/>
+    <sheet name="远程武器" sheetId="7" r:id="rId6"/>
+    <sheet name="穿戴物品" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="背包物品_1" localSheetId="0">背包物品!$A$1:$E$49</definedName>
+    <definedName name="背包物品_1" localSheetId="0">背包物品!$A$1:$E$48</definedName>
     <definedName name="工具_1" localSheetId="2">工具!$A$1:$D$11</definedName>
     <definedName name="状态物品" localSheetId="1">状态物品!$A$1:$I$39</definedName>
   </definedNames>
@@ -84,13 +85,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="443">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>runPenalty</t>
@@ -1387,43 +1384,103 @@
     <t>Hatchet</t>
   </si>
   <si>
+    <t>Crowbar</t>
+  </si>
+  <si>
+    <t>Fire axe</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>Pickaxe</t>
+  </si>
+  <si>
+    <t>Pipe Wrench</t>
+  </si>
+  <si>
+    <t>Pitchfork</t>
+  </si>
+  <si>
+    <t>Shovel</t>
+  </si>
+  <si>
+    <t>Sledgehammer</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>block_chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit_chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Baseball bat</t>
-  </si>
-  <si>
-    <t>Crowbar</t>
-  </si>
-  <si>
-    <t>Fire axe</t>
-  </si>
-  <si>
-    <t>Pan</t>
-  </si>
-  <si>
-    <t>Pickaxe</t>
-  </si>
-  <si>
-    <t>Pipe Wrench</t>
-  </si>
-  <si>
-    <t>Pitchfork</t>
-  </si>
-  <si>
-    <t>Shovel</t>
-  </si>
-  <si>
-    <t>Sledgehammer</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>knife_army</t>
-  </si>
-  <si>
-    <t>knife_butcher</t>
-  </si>
-  <si>
-    <t>knife_hunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/baseball_bat.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/hatchet.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/crowbar.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/fire_axe.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/pan.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/pickaxe.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/pipe_Wrench.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/pitchfork.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/shovel.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/sledgehammer.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/sword.png</t>
+  </si>
+  <si>
+    <t>Butcher Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Army Knife</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/army_knife.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/butcher_knife.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/melee/hunter_knife.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1485,7 +1542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1500,9 +1557,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1635,14 +1689,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152613</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>362163</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>96101</xdr:rowOff>
     </xdr:to>
@@ -1673,7 +1727,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="0"/>
+          <a:off x="8115300" y="0"/>
           <a:ext cx="1524213" cy="6096851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1690,23 +1744,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200787</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>122682</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2749061</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB392FCE-55B2-47DD-96AC-7384AA5D4114}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC1113C-F03D-48AA-9CFA-6CADB13BEB6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,8 +1782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="6153150"/>
-          <a:ext cx="2963037" cy="846582"/>
+          <a:off x="38100" y="809625"/>
+          <a:ext cx="3911111" cy="1117460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,25 +1792,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200238</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>124676</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>567836</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0849414-57A1-4FEE-ACE3-F5FE605E7A1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B890B6-0B4D-3A9A-CA4D-38987CDF1650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1824,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1778,8 +1837,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="0"/>
-          <a:ext cx="1524213" cy="6096851"/>
+          <a:off x="8258175" y="990600"/>
+          <a:ext cx="3911111" cy="1117460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1791,7 +1850,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1851,8 +1910,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>966354</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328179</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2205,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439D1B7-E18C-4B81-B2E2-81022AC5DD63}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2228,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2245,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2262,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2279,10 +2338,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2296,10 +2355,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2313,10 +2372,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2330,10 +2389,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2347,10 +2406,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2364,10 +2423,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2381,10 +2440,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2398,10 +2457,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -2415,10 +2474,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2432,10 +2491,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -2449,10 +2508,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2467,10 +2526,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2484,10 +2543,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2501,10 +2560,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2518,10 +2577,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2535,10 +2594,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2552,10 +2611,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2569,10 +2628,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2586,10 +2645,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2603,10 +2662,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2620,10 +2679,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -2637,10 +2696,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2654,10 +2713,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2671,10 +2730,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2688,10 +2747,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2705,10 +2764,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2722,10 +2781,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2739,10 +2798,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2756,10 +2815,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2773,10 +2832,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -2790,10 +2849,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -2807,10 +2866,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2824,10 +2883,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2841,10 +2900,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2858,10 +2917,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2875,10 +2934,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2892,10 +2951,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2909,10 +2968,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -2926,10 +2985,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -2943,10 +3002,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2960,10 +3019,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2977,10 +3036,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -2994,10 +3053,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -3011,10 +3070,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -3028,33 +3087,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>89</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3091,28 +3133,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3120,10 +3162,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3149,10 +3191,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3178,10 +3220,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3207,10 +3249,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3236,10 +3278,10 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3265,10 +3307,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3294,10 +3336,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3323,10 +3365,10 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3352,10 +3394,10 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3381,10 +3423,10 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3410,10 +3452,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3439,10 +3481,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -3468,10 +3510,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -3497,10 +3539,10 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -3526,10 +3568,10 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -3555,10 +3597,10 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -3584,10 +3626,10 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3613,10 +3655,10 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -3642,10 +3684,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -3671,10 +3713,10 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3700,10 +3742,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -3729,10 +3771,10 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3758,10 +3800,10 @@
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3787,10 +3829,10 @@
         <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3816,10 +3858,10 @@
         <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -3845,10 +3887,10 @@
         <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -3874,10 +3916,10 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3903,10 +3945,10 @@
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3932,10 +3974,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -3961,10 +4003,10 @@
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -3990,10 +4032,10 @@
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -4019,10 +4061,10 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -4048,10 +4090,10 @@
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -4077,10 +4119,10 @@
         <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -4106,10 +4148,10 @@
         <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -4135,10 +4177,10 @@
         <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -4164,10 +4206,10 @@
         <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4193,10 +4235,10 @@
         <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4228,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBC20ED-B8B2-4E40-A4AE-E441357E4E69}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4246,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4260,10 +4302,10 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -4274,10 +4316,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -4288,10 +4330,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
@@ -4302,12 +4344,26 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="D5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="2">
         <v>20</v>
       </c>
     </row>
@@ -4316,10 +4372,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
@@ -4330,10 +4386,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
@@ -4344,10 +4400,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -4358,10 +4414,10 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -4372,10 +4428,10 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -4389,154 +4445,563 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24F552C-E915-4D47-857F-1334B84CB08A}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A58FF1-4D6B-48BF-A4C3-32B4DD813447}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="60.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -4547,12 +5012,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4129E3EC-201A-4968-8528-D5D8EA18EA4A}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4564,15 +5029,15 @@
     <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4581,49 +5046,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -4631,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
@@ -4649,33 +5114,33 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
+        <v>600</v>
+      </c>
+      <c r="I2" s="2">
         <v>10</v>
       </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I38" si="0">H2*0.7</f>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J38" si="0">I2*0.7</f>
         <v>7</v>
       </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J38" si="1">H2+K2*3</f>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K38" si="1">I2+L2*3</f>
         <v>34</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>8</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>30</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3</v>
+      <c r="N2" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="O2" s="2">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2">
         <v>2.5</v>
-      </c>
-      <c r="P2" s="2">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -4683,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2">
         <v>0.3</v>
@@ -4701,33 +5166,33 @@
         <v>2</v>
       </c>
       <c r="H3" s="2">
+        <v>450</v>
+      </c>
+      <c r="I3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>10</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N3" s="2">
-        <v>3</v>
+      <c r="N3" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="O3" s="2">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2">
         <v>2.5</v>
-      </c>
-      <c r="P3" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4735,10 +5200,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>0.3</v>
@@ -4753,33 +5218,33 @@
         <v>1.5</v>
       </c>
       <c r="H4" s="2">
+        <v>750</v>
+      </c>
+      <c r="I4" s="2">
         <v>12</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>8</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>30</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="N4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O4" s="2">
         <v>4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>2.5</v>
-      </c>
-      <c r="P4" s="2">
-        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -4787,10 +5252,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>0.4</v>
@@ -4805,33 +5270,33 @@
         <v>2.5</v>
       </c>
       <c r="H5" s="2">
+        <v>650</v>
+      </c>
+      <c r="I5" s="2">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>6</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>30</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="N5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" s="2">
         <v>3.5</v>
       </c>
-      <c r="O5" s="2">
-        <v>3</v>
-      </c>
       <c r="P5" s="2">
-        <v>650</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -4839,10 +5304,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>0.3</v>
@@ -4857,33 +5322,33 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
+        <v>550</v>
+      </c>
+      <c r="I6" s="2">
         <v>12</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>8</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>40</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="N6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O6" s="2">
         <v>4</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>3.5</v>
-      </c>
-      <c r="P6" s="2">
-        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4891,10 +5356,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -4908,30 +5373,30 @@
       <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>26</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>18.2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40</v>
       </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2</v>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
         <v>3</v>
       </c>
     </row>
@@ -4940,10 +5405,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2">
         <v>0.8</v>
@@ -4958,30 +5423,30 @@
         <v>3</v>
       </c>
       <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>40</v>
       </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O8" s="2">
         <v>4</v>
-      </c>
-      <c r="O8" s="2">
-        <v>2</v>
       </c>
       <c r="P8" s="2">
         <v>2</v>
@@ -4992,10 +5457,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2">
         <v>0.3</v>
@@ -5010,33 +5475,33 @@
         <v>2</v>
       </c>
       <c r="H9" s="2">
+        <v>550</v>
+      </c>
+      <c r="I9" s="2">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>20</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N9" s="2">
-        <v>3</v>
+      <c r="N9" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
         <v>2.5</v>
-      </c>
-      <c r="P9" s="2">
-        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -5044,10 +5509,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>0.4</v>
@@ -5062,33 +5527,33 @@
         <v>2.5</v>
       </c>
       <c r="H10" s="2">
+        <v>450</v>
+      </c>
+      <c r="I10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>7</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>30</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="N10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O10" s="2">
         <v>3.5</v>
       </c>
-      <c r="O10" s="2">
-        <v>3</v>
-      </c>
       <c r="P10" s="2">
-        <v>450</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -5096,10 +5561,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -5114,30 +5579,30 @@
         <v>3</v>
       </c>
       <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
         <v>12</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>40</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O11" s="2">
         <v>4</v>
-      </c>
-      <c r="O11" s="2">
-        <v>2</v>
       </c>
       <c r="P11" s="2">
         <v>2</v>
@@ -5148,10 +5613,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2">
         <v>0.4</v>
@@ -5166,33 +5631,33 @@
         <v>2</v>
       </c>
       <c r="H12" s="2">
+        <v>500</v>
+      </c>
+      <c r="I12" s="2">
         <v>6</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>6</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>30</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N12" s="2">
-        <v>3</v>
+      <c r="N12" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="O12" s="2">
         <v>3</v>
       </c>
       <c r="P12" s="2">
-        <v>500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -5200,10 +5665,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2">
         <v>0.4</v>
@@ -5218,33 +5683,33 @@
         <v>2</v>
       </c>
       <c r="H13" s="2">
+        <v>600</v>
+      </c>
+      <c r="I13" s="2">
         <v>8</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>6</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>30</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3</v>
+      <c r="N13" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="O13" s="2">
+        <v>3</v>
+      </c>
+      <c r="P13" s="2">
         <v>2.5</v>
-      </c>
-      <c r="P13" s="2">
-        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -5252,10 +5717,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2">
         <v>0.5</v>
@@ -5270,33 +5735,33 @@
         <v>2</v>
       </c>
       <c r="H14" s="2">
+        <v>500</v>
+      </c>
+      <c r="I14" s="2">
         <v>12</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>12</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>20</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="N14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O14" s="2">
         <v>4</v>
       </c>
-      <c r="O14" s="2">
-        <v>3</v>
-      </c>
       <c r="P14" s="2">
-        <v>500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -5304,10 +5769,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2">
         <v>0.8</v>
@@ -5322,33 +5787,33 @@
         <v>5</v>
       </c>
       <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
         <v>6</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>40</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N15" s="2">
-        <v>2</v>
+      <c r="N15" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
         <v>4</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -5356,10 +5821,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D16" s="2">
         <v>0.3</v>
@@ -5374,33 +5839,33 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
+        <v>850</v>
+      </c>
+      <c r="I16" s="2">
         <v>12</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>8</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>30</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="N16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O16" s="2">
         <v>4</v>
       </c>
-      <c r="O16" s="2">
-        <v>2</v>
-      </c>
       <c r="P16" s="2">
-        <v>850</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -5408,10 +5873,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2">
         <v>0.5</v>
@@ -5426,33 +5891,33 @@
         <v>2</v>
       </c>
       <c r="H17" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="I17" s="2">
         <v>30</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>40</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N17" s="2">
-        <v>2</v>
+      <c r="N17" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="O17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" s="2">
-        <v>0.65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -5460,10 +5925,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2">
         <v>0.4</v>
@@ -5477,30 +5942,30 @@
       <c r="G18" s="2">
         <v>3</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>10</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>20</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="N18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O18" s="2">
         <v>4</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5509,10 +5974,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2">
         <v>0.3</v>
@@ -5527,33 +5992,33 @@
         <v>2</v>
       </c>
       <c r="H19" s="2">
+        <v>600</v>
+      </c>
+      <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>12</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>40</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="N19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O19" s="2">
         <v>4</v>
       </c>
-      <c r="O19" s="2">
-        <v>3</v>
-      </c>
       <c r="P19" s="2">
-        <v>600</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -5561,10 +6026,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2">
         <v>0.5</v>
@@ -5579,33 +6044,33 @@
         <v>2</v>
       </c>
       <c r="H20" s="2">
+        <v>200</v>
+      </c>
+      <c r="I20" s="2">
         <v>34</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>23.799999999999997</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>38</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>8</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N20" s="2">
-        <v>2</v>
+      <c r="N20" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="O20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" s="2">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -5613,10 +6078,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2">
         <v>0.5</v>
@@ -5630,30 +6095,30 @@
       <c r="G21" s="2">
         <v>4</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>8</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>20</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>10</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="N21" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O21" s="2">
         <v>4</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5662,10 +6127,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2">
         <v>0.4</v>
@@ -5679,30 +6144,30 @@
       <c r="G22" s="2">
         <v>3</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>8</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>16</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>30</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="N22" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O22" s="2">
         <v>4</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -5711,10 +6176,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2">
         <v>0.6</v>
@@ -5729,33 +6194,33 @@
         <v>5</v>
       </c>
       <c r="H23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I23" s="2">
         <v>6</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>18</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>10</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="N23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O23" s="2">
         <v>1.5</v>
       </c>
-      <c r="O23" s="2">
-        <v>3</v>
-      </c>
       <c r="P23" s="2">
-        <v>0.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -5763,10 +6228,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2">
         <v>0.8</v>
@@ -5781,33 +6246,33 @@
         <v>5</v>
       </c>
       <c r="H24" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I24" s="2">
         <v>6</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>26</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>10</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
+      <c r="N24" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="O24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -5815,10 +6280,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2">
         <v>0.3</v>
@@ -5833,33 +6298,33 @@
         <v>1</v>
       </c>
       <c r="H25" s="2">
+        <v>650</v>
+      </c>
+      <c r="I25" s="2">
         <v>14</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>9.7999999999999989</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>6</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>30</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="N25" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O25" s="2">
         <v>4</v>
       </c>
-      <c r="O25" s="2">
-        <v>2</v>
-      </c>
       <c r="P25" s="2">
-        <v>650</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -5867,10 +6332,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2">
         <v>0.4</v>
@@ -5885,33 +6350,33 @@
         <v>2</v>
       </c>
       <c r="H26" s="2">
+        <v>450</v>
+      </c>
+      <c r="I26" s="2">
         <v>4</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>8</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>20</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N26" s="2">
-        <v>3</v>
+      <c r="N26" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="O26" s="2">
         <v>3</v>
       </c>
       <c r="P26" s="2">
-        <v>450</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -5919,10 +6384,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2">
         <v>0.8</v>
@@ -5937,33 +6402,33 @@
         <v>0</v>
       </c>
       <c r="H27" s="2">
+        <v>450</v>
+      </c>
+      <c r="I27" s="2">
         <v>8</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>18</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>10</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="N27" s="2">
+      <c r="N27" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O27" s="2">
         <v>8</v>
       </c>
-      <c r="O27" s="2">
-        <v>2</v>
-      </c>
       <c r="P27" s="2">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -5971,10 +6436,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2">
         <v>0.8</v>
@@ -5989,33 +6454,33 @@
         <v>0</v>
       </c>
       <c r="H28" s="2">
+        <v>450</v>
+      </c>
+      <c r="I28" s="2">
         <v>12</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <v>20</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>7</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="N28" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O28" s="2">
         <v>8</v>
       </c>
-      <c r="O28" s="2">
-        <v>2</v>
-      </c>
       <c r="P28" s="2">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -6023,10 +6488,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2">
         <v>0.8</v>
@@ -6041,33 +6506,33 @@
         <v>0</v>
       </c>
       <c r="H29" s="2">
+        <v>450</v>
+      </c>
+      <c r="I29" s="2">
         <v>14</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>9.7999999999999989</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>18</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <v>15</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="N29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" s="2">
         <v>8</v>
       </c>
-      <c r="O29" s="2">
-        <v>2</v>
-      </c>
       <c r="P29" s="2">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -6075,10 +6540,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2">
         <v>0.8</v>
@@ -6093,33 +6558,33 @@
         <v>0</v>
       </c>
       <c r="H30" s="2">
+        <v>450</v>
+      </c>
+      <c r="I30" s="2">
         <v>10</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>20</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>18</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="N30" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O30" s="2">
         <v>8</v>
       </c>
-      <c r="O30" s="2">
-        <v>2</v>
-      </c>
       <c r="P30" s="2">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -6127,10 +6592,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2">
         <v>0.8</v>
@@ -6145,33 +6610,33 @@
         <v>1</v>
       </c>
       <c r="H31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="2">
         <v>20</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>10</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>30</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="N31" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O31" s="2">
         <v>5</v>
       </c>
-      <c r="O31" s="2">
-        <v>2</v>
-      </c>
       <c r="P31" s="2">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -6179,10 +6644,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2">
         <v>0.8</v>
@@ -6197,33 +6662,33 @@
         <v>0</v>
       </c>
       <c r="H32" s="2">
+        <v>257</v>
+      </c>
+      <c r="I32" s="2">
         <v>12</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>30</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>6</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="N32" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" s="2">
         <v>4</v>
       </c>
-      <c r="O32" s="2">
-        <v>2</v>
-      </c>
       <c r="P32" s="2">
-        <v>257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -6231,10 +6696,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2">
         <v>0.8</v>
@@ -6249,33 +6714,33 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
+        <v>450</v>
+      </c>
+      <c r="I33" s="2">
         <v>18</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>16</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>8</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N33" s="2">
+      <c r="N33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" s="2">
         <v>8</v>
       </c>
-      <c r="O33" s="2">
-        <v>2</v>
-      </c>
       <c r="P33" s="2">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -6283,10 +6748,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2">
         <v>0.8</v>
@@ -6301,33 +6766,33 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
+        <v>450</v>
+      </c>
+      <c r="I34" s="2">
         <v>16</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>20</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>8</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N34" s="2">
+      <c r="N34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" s="2">
         <v>8</v>
       </c>
-      <c r="O34" s="2">
-        <v>2</v>
-      </c>
       <c r="P34" s="2">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -6335,10 +6800,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2">
         <v>0.8</v>
@@ -6353,33 +6818,33 @@
         <v>0</v>
       </c>
       <c r="H35" s="2">
+        <v>450</v>
+      </c>
+      <c r="I35" s="2">
         <v>10</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>20</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <v>12</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N35" s="2">
+      <c r="N35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O35" s="2">
         <v>8</v>
       </c>
-      <c r="O35" s="2">
-        <v>2</v>
-      </c>
       <c r="P35" s="2">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -6387,10 +6852,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2">
         <v>0.8</v>
@@ -6404,30 +6869,30 @@
       <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>26</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>18.2</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <v>40</v>
       </c>
-      <c r="L36" s="2">
-        <v>2</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="M36" s="2">
+        <v>2</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" s="2">
         <v>6</v>
       </c>
-      <c r="O36" s="2">
+      <c r="P36" s="2">
         <v>3</v>
       </c>
     </row>
@@ -6436,10 +6901,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2">
         <v>0.4</v>
@@ -6453,30 +6918,30 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>22</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>15.399999999999999</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <v>34</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>7</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N37" s="2">
+      <c r="N37" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" s="2">
         <v>6</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="2">
         <v>3</v>
       </c>
     </row>
@@ -6485,10 +6950,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2">
         <v>0.8</v>
@@ -6503,33 +6968,33 @@
         <v>1</v>
       </c>
       <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
         <v>24</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <f t="shared" si="0"/>
         <v>16.799999999999997</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>50</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>5</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N38" s="2">
-        <v>4</v>
+      <c r="N38" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="O38" s="2">
         <v>4</v>
       </c>
       <c r="P38" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6543,7 +7008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032ED3F4-8AB3-4487-AD15-AD25197BD471}">
   <dimension ref="A1:G57"/>
   <sheetViews>
@@ -6565,1309 +7030,1307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B10" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" s="3">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
         <v>7</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
         <v>6</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>6</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>6</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3</v>
-      </c>
-      <c r="F20" s="5">
-        <v>5</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5">
-        <v>4</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>3</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>2</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>2</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D32" s="5">
-        <v>2</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>4</v>
-      </c>
-      <c r="G32" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D34" s="5">
-        <v>2</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>3</v>
-      </c>
-      <c r="G34" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D35" s="5">
-        <v>2</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D36" s="5">
-        <v>2</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D37" s="5">
-        <v>2</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3</v>
-      </c>
-      <c r="G37" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D38" s="5">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>3</v>
-      </c>
-      <c r="G38" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D39" s="5">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D40" s="5">
-        <v>2</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D41" s="5">
-        <v>2</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>5</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D42" s="5">
-        <v>2</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>4</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D43" s="5">
-        <v>2</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D44" s="5">
-        <v>3</v>
-      </c>
-      <c r="E44" s="5">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D46" s="5">
-        <v>3</v>
-      </c>
-      <c r="E46" s="5">
-        <v>3</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3</v>
-      </c>
-      <c r="E47" s="5">
-        <v>3</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="D48" s="5">
-        <v>3</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>47</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D49" s="5">
-        <v>3</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>48</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D50" s="5">
-        <v>4</v>
-      </c>
-      <c r="E50" s="5">
-        <v>3</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>49</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D51" s="5">
-        <v>4</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>50</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D52" s="5">
-        <v>4</v>
-      </c>
-      <c r="E52" s="5">
-        <v>5</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D53" s="5">
-        <v>4</v>
-      </c>
-      <c r="E53" s="5">
-        <v>5</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>52</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="5">
-        <v>4</v>
-      </c>
-      <c r="E54" s="5">
-        <v>7</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>53</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D55" s="5">
-        <v>4</v>
-      </c>
-      <c r="E55" s="5">
-        <v>2</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>54</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4</v>
-      </c>
-      <c r="E56" s="5">
-        <v>3</v>
-      </c>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>55</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D57" s="5">
-        <v>4</v>
-      </c>
-      <c r="E57" s="5">
-        <v>6</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>0</v>
       </c>
     </row>
